--- a/FoldertForExcelFiles/test.xlsx
+++ b/FoldertForExcelFiles/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Munka/ExcelToXml/FoldertForExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA14A4-4D3B-B84B-ADB8-7C38015A5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5DBA4-7C1C-DB43-A5C1-C01E069C0699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34080" yWindow="3500" windowWidth="28040" windowHeight="17000" xr2:uid="{DD0D9491-3FBD-FC42-A5F8-A0A43F5CAE4B}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +455,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -472,7 +472,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -489,7 +489,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -506,7 +506,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -523,7 +523,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">

--- a/FoldertForExcelFiles/test.xlsx
+++ b/FoldertForExcelFiles/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Munka/ExcelToXml/FoldertForExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5DBA4-7C1C-DB43-A5C1-C01E069C0699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE4D59-857F-8748-A2BD-CB0D78907AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34080" yWindow="3500" windowWidth="28040" windowHeight="17000" xr2:uid="{DD0D9491-3FBD-FC42-A5F8-A0A43F5CAE4B}"/>
+    <workbookView xWindow="320" yWindow="860" windowWidth="28040" windowHeight="17000" xr2:uid="{DD0D9491-3FBD-FC42-A5F8-A0A43F5CAE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="igaz-hamis" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FoldertForExcelFiles/test.xlsx
+++ b/FoldertForExcelFiles/test.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Munka/ExcelToXml/FoldertForExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE4D59-857F-8748-A2BD-CB0D78907AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC8490-A1FF-4243-B50E-7221850F9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="860" windowWidth="28040" windowHeight="17000" xr2:uid="{DD0D9491-3FBD-FC42-A5F8-A0A43F5CAE4B}"/>
+    <workbookView xWindow="-60000" yWindow="13600" windowWidth="21600" windowHeight="17000" activeTab="3" xr2:uid="{DD0D9491-3FBD-FC42-A5F8-A0A43F5CAE4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="igaz-hamis" sheetId="1" r:id="rId1"/>
-    <sheet name="Maosik oldal" sheetId="2" r:id="rId2"/>
+    <sheet name="párosító" sheetId="2" r:id="rId1"/>
+    <sheet name="szövegbehúzás" sheetId="3" r:id="rId2"/>
+    <sheet name="feleletválasztó" sheetId="4" r:id="rId3"/>
+    <sheet name="igaz-hamis" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -429,11 +431,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102E37E3-8075-8B49-B346-6750E590B403}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44907</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F00A3C-4FA1-5944-AE2B-192EB8576BB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43783FA6-B019-5942-932A-B334D96D7B42}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845BC224-08EC-3C4F-9D09-A96E39185918}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,42 +597,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102E37E3-8075-8B49-B346-6750E590B403}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44907</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>